--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECF18A3-936D-416D-B228-F6060A413669}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F38CA-5CED-4B03-8F9A-B029ED4D2191}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,8 +448,12 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
